--- a/app/handle/dir_save/TrichXuatThongTinCoSan.xlsx
+++ b/app/handle/dir_save/TrichXuatThongTinCoSan.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -26,7 +25,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +48,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +73,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,13 +436,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="18.44140625" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -441,32 +455,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>expire_date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>birth_day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>nationality</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>recent_location</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>expire_date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>birth_day</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>nationality</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -488,42 +502,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Võ Thị Mến</t>
+          <t>VỖ THỊ MỀN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>042305009950</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08/09/2030</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>08/09/2005</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>Lâm Trung Thủy, Đức Thọ, Hà Tĩnh</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>08/09/2030</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>08/09/2005</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Nữ</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Việt Nam</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>042305009950</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Lâm Trung Thủy, Đức Tho, Hà Tĩnh Lâm Trung Thủy, Đức Tho</t>
+          <t>Lâm Trung Thủy, Đức Thọ, Hà Tĩnh</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -533,7 +547,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>06/05/2021</t>
+          <t>13/05/2021</t>
         </is>
       </c>
     </row>
@@ -545,47 +559,307 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>042305008217</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>27/08/2030</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27/08/2005</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Lâm Trung Thủy, Đức Tho, Hà Tĩnh</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>27/08/2030</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>27/08/2005</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Thọ, Hà Tĩnh Lâm Trung Thủy, Đức Thọ, Hà Tĩnh</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CỤC TRƯỞNG CỤC CẢNH SÁT QUẢN LÝ HÀNH CHÍNH VỀ TRẬT TỰ XÃ HỘI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>13/05/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ĐINH THỊ TÚ TRANG</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>049300009355</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>14/05/2025</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14/05/2000</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Việt Nam</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>042305008217</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Thọ, Hà Tĩnh Lâm Trung Thủy, Đức Thọ, Hà Tĩnh</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Trung Toàn 1 Tam Quang, Núi Thành, Quảng Nam</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tam Quang, Núi Thành, Quảng Nam</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>CỤC TRƯỞNG CỤC CẢNH SÁT QUẢN LÝ HÀNH CHÍNH VỀ TRẬT TỰ XÃ HỘI</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>13/05/2021</t>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>15/08/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TRẦN THỊ TƯƠI</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>036188000374</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20/02/2028</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20/02/1988 Nữ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>CH1605 CC PV Xã Vinapharm 60B Nguyễn Huy Tướng,Txt,TX,HN</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Thi trấn Thinh Long, Hải Hâu, Nam Định</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CỤC TRƯỞNG CỤC CẢNH SÁT QUẢN LÝ HÀNH CHÍNH VỀ TRẬT TỰ XÃ HỘI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>06/05/202</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PHẠM THỊ HƯỜNG</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>038304010048</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>22/06/2029</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22/06/2004</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Thôn 10 Xã Long Hưng, Phú Riềng, Bình Phước</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Xã Nga Tân, Nga Sơn, Thanh Hóa Kỳ</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CỤC TRƯỞNG CỤC CẢNH SÁT QUẢN LÝ HÀNH CHÍNH VỀ TRẬT TỰ XÃ HỘI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>15/08/2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NGUYỄN VĂN THỊNH</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>052202005346</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Có giá trị đến 08/02/2027</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>08/02/2002</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>KV Kim Châu Bình Định, Thị xã An Nhơn, Bình Định</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bình Định, Thị xã An Nhơn, Bình Định</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CỤC TRƯỞNG CỤC CẢNH SÁT QUẢN LÝ HÀNH CHÍNH VỀ TRẬT TỰ XÃ HỘI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>07/03/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LÊ HỒNG SƠN</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>030202006686</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>17/05/2027</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17/05/2002</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Việt Nam</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>TDP SỐ 1 Xã Miêu Nha, Tây Mỗ, Nam Từ Liêm, Hà Nội Nội</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Xã Tân Quang, Ninh Giang, Hải Dương</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>CỤC TRƯỞNG CỤC CẢNH SÁT QUẢN LÝ HÀNH CHÍNH VỀ TRẬT TỰ XÃ HỘI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>15/08/2021</t>
         </is>
       </c>
     </row>

--- a/app/handle/dir_save/TrichXuatThongTinCoSan.xlsx
+++ b/app/handle/dir_save/TrichXuatThongTinCoSan.xlsx
@@ -441,32 +441,32 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>expire_date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>birth_day</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>nationality</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>recent_location</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>expire_date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>birth_day</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>nationality</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -488,27 +488,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Võ Thị Mến</t>
+          <t>LÊ HỒNG SƠN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lâm Trung Thủy, Đức Thọ, Hà Tĩnh</t>
+          <t>030202006686</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08/09/2030</t>
+          <t>17/05/2027</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -518,12 +518,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>042305009950</t>
+          <t>TDP SỐ 1 Xã Miêu Nha, Tây Mỗ, Nam Từ Liêm, Hà Nội Nội</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Lâm Trung Thủy, Đức Tho, Hà Tĩnh Lâm Trung Thủy, Đức Tho</t>
+          <t>Xã Tân Quang, Ninh Giang, Hải Dương</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -533,29 +533,29 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>06/05/2021</t>
+          <t>15/08/2021</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LÊ THI THÚY NGÂN</t>
+          <t>ĐINH THỊ TÚ TRANG</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lâm Trung Thủy, Đức Tho, Hà Tĩnh</t>
+          <t>049300009355</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>27/08/2030</t>
+          <t>14/05/2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27/08/2005</t>
+          <t>14/05/2000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -570,12 +570,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>042305008217</t>
+          <t>Trung Toàn 1 Tam Quang, Núi Thành, Quảng Nam</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Thọ, Hà Tĩnh Lâm Trung Thủy, Đức Thọ, Hà Tĩnh</t>
+          <t>Tam Quang, Núi Thành, Quảng Nam</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -585,7 +585,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>13/05/2021</t>
+          <t>15/08/2021</t>
         </is>
       </c>
     </row>

--- a/app/handle/dir_save/TrichXuatThongTinCoSan.xlsx
+++ b/app/handle/dir_save/TrichXuatThongTinCoSan.xlsx
@@ -488,22 +488,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LÊ HỒNG SƠN</t>
+          <t>NGUYỄN VĂN THỊNH</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>030202006686</t>
+          <t>052202005346</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17/05/2027</t>
+          <t>08/02/2027</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>08/02/2002</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -518,12 +518,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>TDP SỐ 1 Xã Miêu Nha, Tây Mỗ, Nam Từ Liêm, Hà Nội Nội</t>
+          <t>KV Kim Châu Bình Định, Thị xã An Nhơn, Bình Định</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Xã Tân Quang, Ninh Giang, Hải Dương</t>
+          <t>Bình Định, Thị xã An Nhơn, Bình Định</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -533,34 +533,34 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>15/08/2021</t>
+          <t>07/03/2022</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ĐINH THỊ TÚ TRANG</t>
+          <t>LIÊU MINH KHA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>049300009355</t>
+          <t>096202014769</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14/05/2025</t>
+          <t>23/01/2027</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14/05/2000</t>
+          <t>23/01/2002</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nam</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -570,22 +570,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Trung Toàn 1 Tam Quang, Núi Thành, Quảng Nam</t>
+          <t>Khóm 3 Phường 5, Thành phố Cà Mau, Cà Mau</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Tam Quang, Núi Thành, Quảng Nam</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>CỤC TRƯỞNG CỤC CẢNH SÁT QUẢN LÝ HÀNH CHÍNH VỀ TRẬT TỰ XÃ HỘI</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>15/08/2021</t>
+          <t>Định Bình, Thành phố Cà Mau, Cà Mau</t>
         </is>
       </c>
     </row>
